--- a/realsense/numbers/PSNR/prop-improve/by_real/psnr-real_prop-improve-v1-detail-ptAll-average_nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/psnr-real_prop-improve-v1-detail-ptAll-average_nph_tileExpand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taw11\source\repos2\At-oZ\realsense\realsense\numbers\PSNR\prop-improve\by_real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B827E1-3326-4AB0-9395-1A72C9A2BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCE387-DAA8-432F-B9C6-00C4BB68E14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="5880" windowWidth="25400" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2272,7 +2272,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
